--- a/Osativa/05_excel/bs15a.xlsx
+++ b/Osativa/05_excel/bs15a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/D6309596-DC8D-4933-96AB-EDD99C9B5270/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/806370C3-8C67-4E38-B292-668B79BBB583/192.168.10.18/disk6/pzhou/projects/barn/Osativa/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72D37AA-7FEE-B142-B72E-5ADAFBEC3054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2367D646-7456-9E40-A1CD-27D742816D1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="1680" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="8680" yWindow="1660" windowWidth="16420" windowHeight="18080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>SampleID</t>
   </si>
@@ -61,16 +61,67 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>SRR1448321</t>
+  </si>
+  <si>
+    <t>SRR1449221</t>
+  </si>
+  <si>
+    <t>SRR1448469</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>MET1-2_WT</t>
+  </si>
+  <si>
+    <t>MET1-2_mm</t>
+  </si>
+  <si>
+    <t>MET1-2_Mm</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Mm</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +475,7 @@
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,28 +492,110 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>58134648</v>
+      </c>
+      <c r="J2">
+        <v>180</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>62002065</v>
+      </c>
+      <c r="J3">
+        <v>180</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>58615445</v>
+      </c>
+      <c r="J4">
+        <v>180</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>